--- a/RData/data_rt_cond.xlsx
+++ b/RData/data_rt_cond.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,25 +375,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>lesion_volume</t>
+          <t>FPM</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>FPM</t>
+          <t>WPM</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>WPM_log</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>WPM_log</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FPM_log</t>
         </is>
@@ -412,18 +407,15 @@
         <v>823.4285714285714</v>
       </c>
       <c r="D2">
-        <v>80497</v>
+        <v>1127.17094017094</v>
       </c>
       <c r="E2">
-        <v>1127.17094017094</v>
+        <v>961.1931034482759</v>
       </c>
       <c r="F2">
-        <v>961.1931034482759</v>
+        <v>6.868175328897202</v>
       </c>
       <c r="G2">
-        <v>6.868175328897202</v>
-      </c>
-      <c r="H2">
         <v>7.027466179708268</v>
       </c>
     </row>
@@ -440,18 +432,15 @@
         <v>185.2857142857143</v>
       </c>
       <c r="D3">
-        <v>23285</v>
+        <v>1675.709090909091</v>
       </c>
       <c r="E3">
-        <v>1675.709090909091</v>
+        <v>1387.960784313726</v>
       </c>
       <c r="F3">
-        <v>1387.960784313726</v>
+        <v>7.235590887291337</v>
       </c>
       <c r="G3">
-        <v>7.235590887291337</v>
-      </c>
-      <c r="H3">
         <v>7.423991692533152</v>
       </c>
     </row>
@@ -468,18 +457,15 @@
         <v>280.8571428571428</v>
       </c>
       <c r="D4">
-        <v>10727</v>
+        <v>1313.71724137931</v>
       </c>
       <c r="E4">
-        <v>1313.71724137931</v>
+        <v>989.9868421052631</v>
       </c>
       <c r="F4">
-        <v>989.9868421052631</v>
+        <v>6.897691652237548</v>
       </c>
       <c r="G4">
-        <v>6.897691652237548</v>
-      </c>
-      <c r="H4">
         <v>7.180615986678988</v>
       </c>
     </row>
@@ -496,18 +482,15 @@
         <v>334.4285714285714</v>
       </c>
       <c r="D5">
-        <v>90943</v>
+        <v>1330.225806451613</v>
       </c>
       <c r="E5">
-        <v>1330.225806451613</v>
+        <v>1438</v>
       </c>
       <c r="F5">
-        <v>1438</v>
+        <v>7.271008538280992</v>
       </c>
       <c r="G5">
-        <v>7.271008538280992</v>
-      </c>
-      <c r="H5">
         <v>7.193103986091854</v>
       </c>
     </row>
@@ -524,18 +507,15 @@
         <v>509.2857142857143</v>
       </c>
       <c r="D6">
-        <v>37855</v>
+        <v>1327.21568627451</v>
       </c>
       <c r="E6">
-        <v>1327.21568627451</v>
+        <v>1031.710227272727</v>
       </c>
       <c r="F6">
-        <v>1031.710227272727</v>
+        <v>6.938973119086882</v>
       </c>
       <c r="G6">
-        <v>6.938973119086882</v>
-      </c>
-      <c r="H6">
         <v>7.190838557880011</v>
       </c>
     </row>
@@ -552,18 +532,15 @@
         <v>516.8571428571429</v>
       </c>
       <c r="D7">
-        <v>84355</v>
+        <v>1466.961038961039</v>
       </c>
       <c r="E7">
-        <v>1466.961038961039</v>
+        <v>962.632911392405</v>
       </c>
       <c r="F7">
-        <v>962.632911392405</v>
+        <v>6.869672146386769</v>
       </c>
       <c r="G7">
-        <v>6.869672146386769</v>
-      </c>
-      <c r="H7">
         <v>7.290948219481536</v>
       </c>
     </row>
@@ -580,18 +557,15 @@
         <v>337.2857142857143</v>
       </c>
       <c r="D8">
-        <v>32445</v>
+        <v>1162.716981132075</v>
       </c>
       <c r="E8">
-        <v>1162.716981132075</v>
+        <v>867.0909090909091</v>
       </c>
       <c r="F8">
-        <v>867.0909090909091</v>
+        <v>6.765143826059799</v>
       </c>
       <c r="G8">
-        <v>6.765143826059799</v>
-      </c>
-      <c r="H8">
         <v>7.05851477048068</v>
       </c>
     </row>
@@ -608,18 +582,15 @@
         <v>469.2857142857143</v>
       </c>
       <c r="D9">
-        <v>426250</v>
+        <v>2181.214285714286</v>
       </c>
       <c r="E9">
-        <v>2181.214285714286</v>
+        <v>1847.307692307692</v>
       </c>
       <c r="F9">
-        <v>1847.307692307692</v>
+        <v>7.521484556637388</v>
       </c>
       <c r="G9">
-        <v>7.521484556637388</v>
-      </c>
-      <c r="H9">
         <v>7.687637012505191</v>
       </c>
     </row>
@@ -636,18 +607,15 @@
         <v>31.28571428571428</v>
       </c>
       <c r="D10">
-        <v>93057</v>
+        <v>1369.927083333333</v>
       </c>
       <c r="E10">
-        <v>1369.927083333333</v>
+        <v>1186.552380952381</v>
       </c>
       <c r="F10">
-        <v>1186.552380952381</v>
+        <v>7.07880722235384</v>
       </c>
       <c r="G10">
-        <v>7.07880722235384</v>
-      </c>
-      <c r="H10">
         <v>7.222512793561449</v>
       </c>
     </row>
@@ -664,18 +632,15 @@
         <v>331.1428571428572</v>
       </c>
       <c r="D11">
-        <v>38515</v>
+        <v>1311.64705882353</v>
       </c>
       <c r="E11">
-        <v>1311.64705882353</v>
+        <v>1014.095890410959</v>
       </c>
       <c r="F11">
-        <v>1014.095890410959</v>
+        <v>6.921752746160236</v>
       </c>
       <c r="G11">
-        <v>6.921752746160236</v>
-      </c>
-      <c r="H11">
         <v>7.179038923271301</v>
       </c>
     </row>
@@ -692,18 +657,15 @@
         <v>1422.428571428571</v>
       </c>
       <c r="D12">
-        <v>159574</v>
+        <v>1851.617391304348</v>
       </c>
       <c r="E12">
-        <v>1851.617391304348</v>
+        <v>1455.380281690141</v>
       </c>
       <c r="F12">
-        <v>1455.380281690141</v>
+        <v>7.28302250744285</v>
       </c>
       <c r="G12">
-        <v>7.28302250744285</v>
-      </c>
-      <c r="H12">
         <v>7.523814801694744</v>
       </c>
     </row>
@@ -720,18 +682,15 @@
         <v>239.7142857142857</v>
       </c>
       <c r="D13">
-        <v>161280</v>
+        <v>1469.75</v>
       </c>
       <c r="E13">
-        <v>1469.75</v>
+        <v>1545.56976744186</v>
       </c>
       <c r="F13">
-        <v>1545.56976744186</v>
+        <v>7.343147902864423</v>
       </c>
       <c r="G13">
-        <v>7.343147902864423</v>
-      </c>
-      <c r="H13">
         <v>7.292847597282364</v>
       </c>
     </row>
@@ -748,18 +707,15 @@
         <v>450.8571428571428</v>
       </c>
       <c r="D14">
-        <v>53638</v>
+        <v>1101.44512195122</v>
       </c>
       <c r="E14">
-        <v>1101.44512195122</v>
+        <v>857.8263157894737</v>
       </c>
       <c r="F14">
-        <v>857.8263157894737</v>
+        <v>6.754401649846619</v>
       </c>
       <c r="G14">
-        <v>6.754401649846619</v>
-      </c>
-      <c r="H14">
         <v>7.004378343804022</v>
       </c>
     </row>
@@ -776,18 +732,15 @@
         <v>443.1428571428572</v>
       </c>
       <c r="D15">
-        <v>113765</v>
+        <v>1357.531914893617</v>
       </c>
       <c r="E15">
-        <v>1357.531914893617</v>
+        <v>1038.871794871795</v>
       </c>
       <c r="F15">
-        <v>1038.871794871795</v>
+        <v>6.945890590677042</v>
       </c>
       <c r="G15">
-        <v>6.945890590677042</v>
-      </c>
-      <c r="H15">
         <v>7.21342356158228</v>
       </c>
     </row>
@@ -804,18 +757,15 @@
         <v>405.5714285714286</v>
       </c>
       <c r="D16">
-        <v>46460</v>
+        <v>1152.467625899281</v>
       </c>
       <c r="E16">
-        <v>1152.467625899281</v>
+        <v>796.7123287671233</v>
       </c>
       <c r="F16">
-        <v>796.7123287671233</v>
+        <v>6.680493671059009</v>
       </c>
       <c r="G16">
-        <v>6.680493671059009</v>
-      </c>
-      <c r="H16">
         <v>7.049660684150259</v>
       </c>
     </row>
@@ -832,18 +782,15 @@
         <v>179.8571428571429</v>
       </c>
       <c r="D17">
-        <v>60757</v>
+        <v>1425.090909090909</v>
       </c>
       <c r="E17">
-        <v>1425.090909090909</v>
+        <v>996.060606060606</v>
       </c>
       <c r="F17">
-        <v>996.060606060606</v>
+        <v>6.903808105191785</v>
       </c>
       <c r="G17">
-        <v>6.903808105191785</v>
-      </c>
-      <c r="H17">
         <v>7.261990886521152</v>
       </c>
     </row>
@@ -860,18 +807,15 @@
         <v>202.7142857142857</v>
       </c>
       <c r="D18">
-        <v>124042</v>
+        <v>1789.952380952381</v>
       </c>
       <c r="E18">
-        <v>1789.952380952381</v>
+        <v>1462.993548387097</v>
       </c>
       <c r="F18">
-        <v>1462.993548387097</v>
+        <v>7.288239991158792</v>
       </c>
       <c r="G18">
-        <v>7.288239991158792</v>
-      </c>
-      <c r="H18">
         <v>7.489944295661041</v>
       </c>
     </row>
@@ -888,18 +832,15 @@
         <v>141.7142857142857</v>
       </c>
       <c r="D19">
-        <v>51685</v>
+        <v>2100.153846153846</v>
       </c>
       <c r="E19">
-        <v>2100.153846153846</v>
+        <v>1578.6</v>
       </c>
       <c r="F19">
-        <v>1578.6</v>
+        <v>7.364293657274302</v>
       </c>
       <c r="G19">
-        <v>7.364293657274302</v>
-      </c>
-      <c r="H19">
         <v>7.649765881101386</v>
       </c>
     </row>
@@ -916,18 +857,15 @@
         <v>275</v>
       </c>
       <c r="D20">
-        <v>33649</v>
+        <v>1302.801369863014</v>
       </c>
       <c r="E20">
-        <v>1302.801369863014</v>
+        <v>1045.953333333333</v>
       </c>
       <c r="F20">
-        <v>1045.953333333333</v>
+        <v>6.952684029225537</v>
       </c>
       <c r="G20">
-        <v>6.952684029225537</v>
-      </c>
-      <c r="H20">
         <v>7.172272124877588</v>
       </c>
     </row>
@@ -944,18 +882,15 @@
         <v>555.8571428571429</v>
       </c>
       <c r="D21">
-        <v>94032</v>
+        <v>1223.923076923077</v>
       </c>
       <c r="E21">
-        <v>1223.923076923077</v>
+        <v>803.5625</v>
       </c>
       <c r="F21">
-        <v>803.5625</v>
+        <v>6.689054966844467</v>
       </c>
       <c r="G21">
-        <v>6.689054966844467</v>
-      </c>
-      <c r="H21">
         <v>7.10981661544632</v>
       </c>
     </row>
@@ -972,18 +907,15 @@
         <v>843.2857142857143</v>
       </c>
       <c r="D22">
-        <v>164920</v>
+        <v>1638.9</v>
       </c>
       <c r="E22">
-        <v>1638.9</v>
+        <v>1267.959183673469</v>
       </c>
       <c r="F22">
-        <v>1267.959183673469</v>
+        <v>7.145163944947113</v>
       </c>
       <c r="G22">
-        <v>7.145163944947113</v>
-      </c>
-      <c r="H22">
         <v>7.401780564069782</v>
       </c>
     </row>
@@ -1000,18 +932,15 @@
         <v>146.2857142857143</v>
       </c>
       <c r="D23">
-        <v>84257</v>
+        <v>1549.987654320988</v>
       </c>
       <c r="E23">
-        <v>1549.987654320988</v>
+        <v>1218.099415204678</v>
       </c>
       <c r="F23">
-        <v>1218.099415204678</v>
+        <v>7.105047066617693</v>
       </c>
       <c r="G23">
-        <v>7.105047066617693</v>
-      </c>
-      <c r="H23">
         <v>7.34600224492737</v>
       </c>
     </row>
@@ -1028,18 +957,15 @@
         <v>162.2857142857143</v>
       </c>
       <c r="D24">
-        <v>28230</v>
+        <v>969.2132352941177</v>
       </c>
       <c r="E24">
-        <v>969.2132352941177</v>
+        <v>832.7234042553191</v>
       </c>
       <c r="F24">
-        <v>832.7234042553191</v>
+        <v>6.724701539314093</v>
       </c>
       <c r="G24">
-        <v>6.724701539314093</v>
-      </c>
-      <c r="H24">
         <v>6.876484644744835</v>
       </c>
     </row>
@@ -1056,18 +982,15 @@
         <v>481.5714285714286</v>
       </c>
       <c r="D25">
-        <v>246035</v>
+        <v>1165.78021978022</v>
       </c>
       <c r="E25">
-        <v>1165.78021978022</v>
+        <v>1112.19801980198</v>
       </c>
       <c r="F25">
-        <v>1112.19801980198</v>
+        <v>7.014093534318485</v>
       </c>
       <c r="G25">
-        <v>7.014093534318485</v>
-      </c>
-      <c r="H25">
         <v>7.061145858389295</v>
       </c>
     </row>
@@ -1084,18 +1007,15 @@
         <v>128.5714285714286</v>
       </c>
       <c r="D26">
-        <v>23763</v>
+        <v>1225.128</v>
       </c>
       <c r="E26">
-        <v>1225.128</v>
+        <v>998.3783783783783</v>
       </c>
       <c r="F26">
-        <v>998.3783783783783</v>
+        <v>6.906132341109006</v>
       </c>
       <c r="G26">
-        <v>6.906132341109006</v>
-      </c>
-      <c r="H26">
         <v>7.110800607316067</v>
       </c>
     </row>
@@ -1112,18 +1032,15 @@
         <v>131.4285714285714</v>
       </c>
       <c r="D27">
-        <v>8264</v>
+        <v>799.9130434782609</v>
       </c>
       <c r="E27">
-        <v>799.9130434782609</v>
+        <v>595.6904761904761</v>
       </c>
       <c r="F27">
-        <v>595.6904761904761</v>
+        <v>6.389721196913212</v>
       </c>
       <c r="G27">
-        <v>6.389721196913212</v>
-      </c>
-      <c r="H27">
         <v>6.684503026107953</v>
       </c>
     </row>
@@ -1140,18 +1057,15 @@
         <v>436.4285714285714</v>
       </c>
       <c r="D28">
-        <v>15893</v>
+        <v>1278.203389830509</v>
       </c>
       <c r="E28">
-        <v>1278.203389830509</v>
+        <v>1070.8</v>
       </c>
       <c r="F28">
-        <v>1070.8</v>
+        <v>6.976161311646197</v>
       </c>
       <c r="G28">
-        <v>6.976161311646197</v>
-      </c>
-      <c r="H28">
         <v>7.153210769247173</v>
       </c>
     </row>
@@ -1168,18 +1082,15 @@
         <v>121.5714285714286</v>
       </c>
       <c r="D29">
-        <v>1130</v>
+        <v>886.3728813559322</v>
       </c>
       <c r="E29">
-        <v>886.3728813559322</v>
+        <v>684.8679245283018</v>
       </c>
       <c r="F29">
-        <v>684.8679245283018</v>
+        <v>6.529226008764224</v>
       </c>
       <c r="G29">
-        <v>6.529226008764224</v>
-      </c>
-      <c r="H29">
         <v>6.787137721386846</v>
       </c>
     </row>
@@ -1196,18 +1107,15 @@
         <v>308</v>
       </c>
       <c r="D30">
-        <v>79200</v>
+        <v>1371.18320610687</v>
       </c>
       <c r="E30">
-        <v>1371.18320610687</v>
+        <v>1045.545454545455</v>
       </c>
       <c r="F30">
-        <v>1045.545454545455</v>
+        <v>6.952293994294211</v>
       </c>
       <c r="G30">
-        <v>6.952293994294211</v>
-      </c>
-      <c r="H30">
         <v>7.223429300180174</v>
       </c>
     </row>
@@ -1224,18 +1132,15 @@
         <v>96.71428571428571</v>
       </c>
       <c r="D31">
-        <v>20761</v>
+        <v>1235.730434782609</v>
       </c>
       <c r="E31">
-        <v>1235.730434782609</v>
+        <v>1063.765625</v>
       </c>
       <c r="F31">
-        <v>1063.765625</v>
+        <v>6.969570368381352</v>
       </c>
       <c r="G31">
-        <v>6.969570368381352</v>
-      </c>
-      <c r="H31">
         <v>7.119417519395422</v>
       </c>
     </row>
@@ -1252,18 +1157,15 @@
         <v>107.5714285714286</v>
       </c>
       <c r="D32">
-        <v>82699</v>
+        <v>1535.657894736842</v>
       </c>
       <c r="E32">
-        <v>1535.657894736842</v>
+        <v>1388.41935483871</v>
       </c>
       <c r="F32">
-        <v>1388.41935483871</v>
+        <v>7.235921224281354</v>
       </c>
       <c r="G32">
-        <v>7.235921224281354</v>
-      </c>
-      <c r="H32">
         <v>7.336714164120068</v>
       </c>
     </row>
@@ -1280,18 +1182,15 @@
         <v>331.5714285714286</v>
       </c>
       <c r="D33">
-        <v>112356</v>
+        <v>1581.079646017699</v>
       </c>
       <c r="E33">
-        <v>1581.079646017699</v>
+        <v>1144.654929577465</v>
       </c>
       <c r="F33">
-        <v>1144.654929577465</v>
+        <v>7.042858499018744</v>
       </c>
       <c r="G33">
-        <v>7.042858499018744</v>
-      </c>
-      <c r="H33">
         <v>7.365863212928386</v>
       </c>
     </row>
@@ -1308,18 +1207,15 @@
         <v>161.7142857142857</v>
       </c>
       <c r="D34">
-        <v>50491</v>
+        <v>1301.338842975207</v>
       </c>
       <c r="E34">
-        <v>1301.338842975207</v>
+        <v>971.8214285714286</v>
       </c>
       <c r="F34">
-        <v>971.8214285714286</v>
+        <v>6.879172072121193</v>
       </c>
       <c r="G34">
-        <v>6.879172072121193</v>
-      </c>
-      <c r="H34">
         <v>7.171148892699564</v>
       </c>
     </row>
@@ -1336,18 +1232,15 @@
         <v>229.8571428571429</v>
       </c>
       <c r="D35">
-        <v>67501</v>
+        <v>1375.584745762712</v>
       </c>
       <c r="E35">
-        <v>1375.584745762712</v>
+        <v>1087.904761904762</v>
       </c>
       <c r="F35">
-        <v>1087.904761904762</v>
+        <v>6.992008888570469</v>
       </c>
       <c r="G35">
-        <v>6.992008888570469</v>
-      </c>
-      <c r="H35">
         <v>7.226634189344773</v>
       </c>
     </row>
@@ -1364,18 +1257,15 @@
         <v>196.7142857142857</v>
       </c>
       <c r="D36">
-        <v>25964</v>
+        <v>1433.088607594937</v>
       </c>
       <c r="E36">
-        <v>1433.088607594937</v>
+        <v>1170.511278195489</v>
       </c>
       <c r="F36">
-        <v>1170.511278195489</v>
+        <v>7.065195922250192</v>
       </c>
       <c r="G36">
-        <v>7.065195922250192</v>
-      </c>
-      <c r="H36">
         <v>7.267587259548748</v>
       </c>
     </row>
@@ -1392,18 +1282,15 @@
         <v>390.1428571428572</v>
       </c>
       <c r="D37">
-        <v>42050</v>
+        <v>1274.812903225806</v>
       </c>
       <c r="E37">
-        <v>1274.812903225806</v>
+        <v>949.6526946107784</v>
       </c>
       <c r="F37">
-        <v>949.6526946107784</v>
+        <v>6.856096333132005</v>
       </c>
       <c r="G37">
-        <v>6.856096333132005</v>
-      </c>
-      <c r="H37">
         <v>7.150554704256788</v>
       </c>
     </row>
@@ -1420,18 +1307,15 @@
         <v>137.2857142857143</v>
       </c>
       <c r="D38">
-        <v>46698</v>
+        <v>1127.573529411765</v>
       </c>
       <c r="E38">
-        <v>1127.573529411765</v>
+        <v>790.4</v>
       </c>
       <c r="F38">
-        <v>790.4</v>
+        <v>6.672539146433658</v>
       </c>
       <c r="G38">
-        <v>6.672539146433658</v>
-      </c>
-      <c r="H38">
         <v>7.027823283806345</v>
       </c>
     </row>
@@ -1448,18 +1332,15 @@
         <v>1061</v>
       </c>
       <c r="D39">
-        <v>149943</v>
+        <v>1108.344262295082</v>
       </c>
       <c r="E39">
-        <v>1108.344262295082</v>
+        <v>876.9</v>
       </c>
       <c r="F39">
-        <v>876.9</v>
+        <v>6.77639296078531</v>
       </c>
       <c r="G39">
-        <v>6.77639296078531</v>
-      </c>
-      <c r="H39">
         <v>7.010622525090596</v>
       </c>
     </row>
@@ -1476,18 +1357,15 @@
         <v>79.14285714285714</v>
       </c>
       <c r="D40">
-        <v>79825</v>
+        <v>1588.352459016393</v>
       </c>
       <c r="E40">
-        <v>1588.352459016393</v>
+        <v>1263.765957446808</v>
       </c>
       <c r="F40">
-        <v>1263.765957446808</v>
+        <v>7.14185139731475</v>
       </c>
       <c r="G40">
-        <v>7.14185139731475</v>
-      </c>
-      <c r="H40">
         <v>7.370452568701144</v>
       </c>
     </row>
@@ -1504,18 +1382,15 @@
         <v>95.85714285714286</v>
       </c>
       <c r="D41">
-        <v>150679</v>
+        <v>992.7404580152672</v>
       </c>
       <c r="E41">
-        <v>992.7404580152672</v>
+        <v>776.5172413793103</v>
       </c>
       <c r="F41">
-        <v>776.5172413793103</v>
+        <v>6.654818846307865</v>
       </c>
       <c r="G41">
-        <v>6.654818846307865</v>
-      </c>
-      <c r="H41">
         <v>6.900469258295833</v>
       </c>
     </row>
@@ -1532,18 +1407,15 @@
         <v>78.14285714285714</v>
       </c>
       <c r="D42">
-        <v>171357</v>
+        <v>1370.915966386555</v>
       </c>
       <c r="E42">
-        <v>1370.915966386555</v>
+        <v>1254.826771653543</v>
       </c>
       <c r="F42">
-        <v>1254.826771653543</v>
+        <v>7.134752811483845</v>
       </c>
       <c r="G42">
-        <v>7.134752811483845</v>
-      </c>
-      <c r="H42">
         <v>7.223234384019707</v>
       </c>
     </row>
@@ -1560,18 +1432,15 @@
         <v>310.4285714285714</v>
       </c>
       <c r="D43">
-        <v>144941</v>
+        <v>1064.655405405405</v>
       </c>
       <c r="E43">
-        <v>1064.655405405405</v>
+        <v>903.2057142857143</v>
       </c>
       <c r="F43">
-        <v>903.2057142857143</v>
+        <v>6.805950339526814</v>
       </c>
       <c r="G43">
-        <v>6.805950339526814</v>
-      </c>
-      <c r="H43">
         <v>6.970406462786104</v>
       </c>
     </row>
@@ -1588,18 +1457,15 @@
         <v>101</v>
       </c>
       <c r="D44">
-        <v>9780</v>
+        <v>1225.5</v>
       </c>
       <c r="E44">
-        <v>1225.5</v>
+        <v>919.1148648648649</v>
       </c>
       <c r="F44">
-        <v>919.1148648648649</v>
+        <v>6.823411103516777</v>
       </c>
       <c r="G44">
-        <v>6.823411103516777</v>
-      </c>
-      <c r="H44">
         <v>7.111104202968168</v>
       </c>
     </row>
@@ -1616,18 +1482,15 @@
         <v>123.5714285714286</v>
       </c>
       <c r="D45">
-        <v>39528</v>
+        <v>908.1098901098901</v>
       </c>
       <c r="E45">
-        <v>908.1098901098901</v>
+        <v>716.4293193717277</v>
       </c>
       <c r="F45">
-        <v>716.4293193717277</v>
+        <v>6.574279595328631</v>
       </c>
       <c r="G45">
-        <v>6.574279595328631</v>
-      </c>
-      <c r="H45">
         <v>6.811365395628536</v>
       </c>
     </row>
@@ -1644,18 +1507,15 @@
         <v>186.7142857142857</v>
       </c>
       <c r="D46">
-        <v>92619</v>
+        <v>740.609756097561</v>
       </c>
       <c r="E46">
-        <v>740.609756097561</v>
+        <v>614.7647058823529</v>
       </c>
       <c r="F46">
-        <v>614.7647058823529</v>
+        <v>6.421239602538288</v>
       </c>
       <c r="G46">
-        <v>6.421239602538288</v>
-      </c>
-      <c r="H46">
         <v>6.607473841627368</v>
       </c>
     </row>
@@ -1672,18 +1532,15 @@
         <v>89.42857142857143</v>
       </c>
       <c r="D47">
-        <v>93627</v>
+        <v>1259.735294117647</v>
       </c>
       <c r="E47">
-        <v>1259.735294117647</v>
+        <v>1054.751552795031</v>
       </c>
       <c r="F47">
-        <v>1054.751552795031</v>
+        <v>6.961060523195856</v>
       </c>
       <c r="G47">
-        <v>6.961060523195856</v>
-      </c>
-      <c r="H47">
         <v>7.138656893841168</v>
       </c>
     </row>
@@ -1700,18 +1557,15 @@
         <v>43.28571428571428</v>
       </c>
       <c r="D48">
-        <v>77090</v>
+        <v>1191.714285714286</v>
       </c>
       <c r="E48">
-        <v>1191.714285714286</v>
+        <v>1052.948905109489</v>
       </c>
       <c r="F48">
-        <v>1052.948905109489</v>
+        <v>6.959349987793811</v>
       </c>
       <c r="G48">
-        <v>6.959349987793811</v>
-      </c>
-      <c r="H48">
         <v>7.083148125701578</v>
       </c>
     </row>
@@ -1728,18 +1582,15 @@
         <v>60.42857142857143</v>
       </c>
       <c r="D49">
-        <v>30126</v>
+        <v>1569.258928571429</v>
       </c>
       <c r="E49">
-        <v>1569.258928571429</v>
+        <v>1373.66935483871</v>
       </c>
       <c r="F49">
-        <v>1373.66935483871</v>
+        <v>7.225240799600637</v>
       </c>
       <c r="G49">
-        <v>7.225240799600637</v>
-      </c>
-      <c r="H49">
         <v>7.358358766887639</v>
       </c>
     </row>
@@ -1756,18 +1607,15 @@
         <v>34.42857142857143</v>
       </c>
       <c r="D50">
-        <v>176889</v>
+        <v>1258.352517985611</v>
       </c>
       <c r="E50">
-        <v>1258.352517985611</v>
+        <v>951.9875</v>
       </c>
       <c r="F50">
-        <v>951.9875</v>
+        <v>6.858551904453062</v>
       </c>
       <c r="G50">
-        <v>6.858551904453062</v>
-      </c>
-      <c r="H50">
         <v>7.137558618980075</v>
       </c>
     </row>
@@ -1784,18 +1632,15 @@
         <v>31.71428571428572</v>
       </c>
       <c r="D51">
-        <v>3172</v>
+        <v>1806.15</v>
       </c>
       <c r="E51">
-        <v>1806.15</v>
+        <v>1544.859504132231</v>
       </c>
       <c r="F51">
-        <v>1544.859504132231</v>
+        <v>7.342688249360188</v>
       </c>
       <c r="G51">
-        <v>7.342688249360188</v>
-      </c>
-      <c r="H51">
         <v>7.498952787006337</v>
       </c>
     </row>
@@ -1812,18 +1657,15 @@
         <v>28.71428571428572</v>
       </c>
       <c r="D52">
-        <v>36056</v>
+        <v>1148.148936170213</v>
       </c>
       <c r="E52">
-        <v>1148.148936170213</v>
+        <v>946.1948051948052</v>
       </c>
       <c r="F52">
-        <v>946.1948051948052</v>
+        <v>6.852448473005276</v>
       </c>
       <c r="G52">
-        <v>6.852448473005276</v>
-      </c>
-      <c r="H52">
         <v>7.045906303804517</v>
       </c>
     </row>

--- a/RData/data_rt_cond.xlsx
+++ b/RData/data_rt_cond.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,20 +375,10 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FPM</t>
+          <t>WPM_log</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>WPM</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>WPM_log</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FPM_log</t>
         </is>
@@ -407,15 +397,9 @@
         <v>823.4285714285714</v>
       </c>
       <c r="D2">
-        <v>1127.17094017094</v>
+        <v>6.868175328897202</v>
       </c>
       <c r="E2">
-        <v>961.1931034482759</v>
-      </c>
-      <c r="F2">
-        <v>6.868175328897202</v>
-      </c>
-      <c r="G2">
         <v>7.027466179708268</v>
       </c>
     </row>
@@ -432,15 +416,9 @@
         <v>185.2857142857143</v>
       </c>
       <c r="D3">
-        <v>1675.709090909091</v>
+        <v>7.235590887291337</v>
       </c>
       <c r="E3">
-        <v>1387.960784313726</v>
-      </c>
-      <c r="F3">
-        <v>7.235590887291337</v>
-      </c>
-      <c r="G3">
         <v>7.423991692533152</v>
       </c>
     </row>
@@ -457,15 +435,9 @@
         <v>280.8571428571428</v>
       </c>
       <c r="D4">
-        <v>1313.71724137931</v>
+        <v>6.897691652237548</v>
       </c>
       <c r="E4">
-        <v>989.9868421052631</v>
-      </c>
-      <c r="F4">
-        <v>6.897691652237548</v>
-      </c>
-      <c r="G4">
         <v>7.180615986678988</v>
       </c>
     </row>
@@ -482,15 +454,9 @@
         <v>334.4285714285714</v>
       </c>
       <c r="D5">
-        <v>1330.225806451613</v>
+        <v>7.271008538280992</v>
       </c>
       <c r="E5">
-        <v>1438</v>
-      </c>
-      <c r="F5">
-        <v>7.271008538280992</v>
-      </c>
-      <c r="G5">
         <v>7.193103986091854</v>
       </c>
     </row>
@@ -507,15 +473,9 @@
         <v>509.2857142857143</v>
       </c>
       <c r="D6">
-        <v>1327.21568627451</v>
+        <v>6.938973119086882</v>
       </c>
       <c r="E6">
-        <v>1031.710227272727</v>
-      </c>
-      <c r="F6">
-        <v>6.938973119086882</v>
-      </c>
-      <c r="G6">
         <v>7.190838557880011</v>
       </c>
     </row>
@@ -532,15 +492,9 @@
         <v>516.8571428571429</v>
       </c>
       <c r="D7">
-        <v>1466.961038961039</v>
+        <v>6.869672146386769</v>
       </c>
       <c r="E7">
-        <v>962.632911392405</v>
-      </c>
-      <c r="F7">
-        <v>6.869672146386769</v>
-      </c>
-      <c r="G7">
         <v>7.290948219481536</v>
       </c>
     </row>
@@ -557,15 +511,9 @@
         <v>337.2857142857143</v>
       </c>
       <c r="D8">
-        <v>1162.716981132075</v>
+        <v>6.765143826059799</v>
       </c>
       <c r="E8">
-        <v>867.0909090909091</v>
-      </c>
-      <c r="F8">
-        <v>6.765143826059799</v>
-      </c>
-      <c r="G8">
         <v>7.05851477048068</v>
       </c>
     </row>
@@ -582,15 +530,9 @@
         <v>469.2857142857143</v>
       </c>
       <c r="D9">
-        <v>2181.214285714286</v>
+        <v>7.521484556637388</v>
       </c>
       <c r="E9">
-        <v>1847.307692307692</v>
-      </c>
-      <c r="F9">
-        <v>7.521484556637388</v>
-      </c>
-      <c r="G9">
         <v>7.687637012505191</v>
       </c>
     </row>
@@ -607,15 +549,9 @@
         <v>31.28571428571428</v>
       </c>
       <c r="D10">
-        <v>1369.927083333333</v>
+        <v>7.07880722235384</v>
       </c>
       <c r="E10">
-        <v>1186.552380952381</v>
-      </c>
-      <c r="F10">
-        <v>7.07880722235384</v>
-      </c>
-      <c r="G10">
         <v>7.222512793561449</v>
       </c>
     </row>
@@ -632,15 +568,9 @@
         <v>331.1428571428572</v>
       </c>
       <c r="D11">
-        <v>1311.64705882353</v>
+        <v>6.921752746160236</v>
       </c>
       <c r="E11">
-        <v>1014.095890410959</v>
-      </c>
-      <c r="F11">
-        <v>6.921752746160236</v>
-      </c>
-      <c r="G11">
         <v>7.179038923271301</v>
       </c>
     </row>
@@ -657,15 +587,9 @@
         <v>1422.428571428571</v>
       </c>
       <c r="D12">
-        <v>1851.617391304348</v>
+        <v>7.28302250744285</v>
       </c>
       <c r="E12">
-        <v>1455.380281690141</v>
-      </c>
-      <c r="F12">
-        <v>7.28302250744285</v>
-      </c>
-      <c r="G12">
         <v>7.523814801694744</v>
       </c>
     </row>
@@ -682,15 +606,9 @@
         <v>239.7142857142857</v>
       </c>
       <c r="D13">
-        <v>1469.75</v>
+        <v>7.343147902864423</v>
       </c>
       <c r="E13">
-        <v>1545.56976744186</v>
-      </c>
-      <c r="F13">
-        <v>7.343147902864423</v>
-      </c>
-      <c r="G13">
         <v>7.292847597282364</v>
       </c>
     </row>
@@ -707,15 +625,9 @@
         <v>450.8571428571428</v>
       </c>
       <c r="D14">
-        <v>1101.44512195122</v>
+        <v>6.754401649846619</v>
       </c>
       <c r="E14">
-        <v>857.8263157894737</v>
-      </c>
-      <c r="F14">
-        <v>6.754401649846619</v>
-      </c>
-      <c r="G14">
         <v>7.004378343804022</v>
       </c>
     </row>
@@ -732,15 +644,9 @@
         <v>443.1428571428572</v>
       </c>
       <c r="D15">
-        <v>1357.531914893617</v>
+        <v>6.945890590677042</v>
       </c>
       <c r="E15">
-        <v>1038.871794871795</v>
-      </c>
-      <c r="F15">
-        <v>6.945890590677042</v>
-      </c>
-      <c r="G15">
         <v>7.21342356158228</v>
       </c>
     </row>
@@ -757,15 +663,9 @@
         <v>405.5714285714286</v>
       </c>
       <c r="D16">
-        <v>1152.467625899281</v>
+        <v>6.680493671059009</v>
       </c>
       <c r="E16">
-        <v>796.7123287671233</v>
-      </c>
-      <c r="F16">
-        <v>6.680493671059009</v>
-      </c>
-      <c r="G16">
         <v>7.049660684150259</v>
       </c>
     </row>
@@ -782,15 +682,9 @@
         <v>179.8571428571429</v>
       </c>
       <c r="D17">
-        <v>1425.090909090909</v>
+        <v>6.903808105191785</v>
       </c>
       <c r="E17">
-        <v>996.060606060606</v>
-      </c>
-      <c r="F17">
-        <v>6.903808105191785</v>
-      </c>
-      <c r="G17">
         <v>7.261990886521152</v>
       </c>
     </row>
@@ -807,15 +701,9 @@
         <v>202.7142857142857</v>
       </c>
       <c r="D18">
-        <v>1789.952380952381</v>
+        <v>7.288239991158792</v>
       </c>
       <c r="E18">
-        <v>1462.993548387097</v>
-      </c>
-      <c r="F18">
-        <v>7.288239991158792</v>
-      </c>
-      <c r="G18">
         <v>7.489944295661041</v>
       </c>
     </row>
@@ -832,15 +720,9 @@
         <v>141.7142857142857</v>
       </c>
       <c r="D19">
-        <v>2100.153846153846</v>
+        <v>7.364293657274302</v>
       </c>
       <c r="E19">
-        <v>1578.6</v>
-      </c>
-      <c r="F19">
-        <v>7.364293657274302</v>
-      </c>
-      <c r="G19">
         <v>7.649765881101386</v>
       </c>
     </row>
@@ -857,15 +739,9 @@
         <v>275</v>
       </c>
       <c r="D20">
-        <v>1302.801369863014</v>
+        <v>6.952684029225537</v>
       </c>
       <c r="E20">
-        <v>1045.953333333333</v>
-      </c>
-      <c r="F20">
-        <v>6.952684029225537</v>
-      </c>
-      <c r="G20">
         <v>7.172272124877588</v>
       </c>
     </row>
@@ -882,15 +758,9 @@
         <v>555.8571428571429</v>
       </c>
       <c r="D21">
-        <v>1223.923076923077</v>
+        <v>6.689054966844467</v>
       </c>
       <c r="E21">
-        <v>803.5625</v>
-      </c>
-      <c r="F21">
-        <v>6.689054966844467</v>
-      </c>
-      <c r="G21">
         <v>7.10981661544632</v>
       </c>
     </row>
@@ -907,15 +777,9 @@
         <v>843.2857142857143</v>
       </c>
       <c r="D22">
-        <v>1638.9</v>
+        <v>7.145163944947113</v>
       </c>
       <c r="E22">
-        <v>1267.959183673469</v>
-      </c>
-      <c r="F22">
-        <v>7.145163944947113</v>
-      </c>
-      <c r="G22">
         <v>7.401780564069782</v>
       </c>
     </row>
@@ -932,15 +796,9 @@
         <v>146.2857142857143</v>
       </c>
       <c r="D23">
-        <v>1549.987654320988</v>
+        <v>7.105047066617693</v>
       </c>
       <c r="E23">
-        <v>1218.099415204678</v>
-      </c>
-      <c r="F23">
-        <v>7.105047066617693</v>
-      </c>
-      <c r="G23">
         <v>7.34600224492737</v>
       </c>
     </row>
@@ -957,15 +815,9 @@
         <v>162.2857142857143</v>
       </c>
       <c r="D24">
-        <v>969.2132352941177</v>
+        <v>6.724701539314093</v>
       </c>
       <c r="E24">
-        <v>832.7234042553191</v>
-      </c>
-      <c r="F24">
-        <v>6.724701539314093</v>
-      </c>
-      <c r="G24">
         <v>6.876484644744835</v>
       </c>
     </row>
@@ -982,15 +834,9 @@
         <v>481.5714285714286</v>
       </c>
       <c r="D25">
-        <v>1165.78021978022</v>
+        <v>7.014093534318485</v>
       </c>
       <c r="E25">
-        <v>1112.19801980198</v>
-      </c>
-      <c r="F25">
-        <v>7.014093534318485</v>
-      </c>
-      <c r="G25">
         <v>7.061145858389295</v>
       </c>
     </row>
@@ -1007,15 +853,9 @@
         <v>128.5714285714286</v>
       </c>
       <c r="D26">
-        <v>1225.128</v>
+        <v>6.906132341109006</v>
       </c>
       <c r="E26">
-        <v>998.3783783783783</v>
-      </c>
-      <c r="F26">
-        <v>6.906132341109006</v>
-      </c>
-      <c r="G26">
         <v>7.110800607316067</v>
       </c>
     </row>
@@ -1032,15 +872,9 @@
         <v>131.4285714285714</v>
       </c>
       <c r="D27">
-        <v>799.9130434782609</v>
+        <v>6.389721196913212</v>
       </c>
       <c r="E27">
-        <v>595.6904761904761</v>
-      </c>
-      <c r="F27">
-        <v>6.389721196913212</v>
-      </c>
-      <c r="G27">
         <v>6.684503026107953</v>
       </c>
     </row>
@@ -1057,15 +891,9 @@
         <v>436.4285714285714</v>
       </c>
       <c r="D28">
-        <v>1278.203389830509</v>
+        <v>6.976161311646197</v>
       </c>
       <c r="E28">
-        <v>1070.8</v>
-      </c>
-      <c r="F28">
-        <v>6.976161311646197</v>
-      </c>
-      <c r="G28">
         <v>7.153210769247173</v>
       </c>
     </row>
@@ -1082,15 +910,9 @@
         <v>121.5714285714286</v>
       </c>
       <c r="D29">
-        <v>886.3728813559322</v>
+        <v>6.529226008764224</v>
       </c>
       <c r="E29">
-        <v>684.8679245283018</v>
-      </c>
-      <c r="F29">
-        <v>6.529226008764224</v>
-      </c>
-      <c r="G29">
         <v>6.787137721386846</v>
       </c>
     </row>
@@ -1107,15 +929,9 @@
         <v>308</v>
       </c>
       <c r="D30">
-        <v>1371.18320610687</v>
+        <v>6.952293994294211</v>
       </c>
       <c r="E30">
-        <v>1045.545454545455</v>
-      </c>
-      <c r="F30">
-        <v>6.952293994294211</v>
-      </c>
-      <c r="G30">
         <v>7.223429300180174</v>
       </c>
     </row>
@@ -1132,15 +948,9 @@
         <v>96.71428571428571</v>
       </c>
       <c r="D31">
-        <v>1235.730434782609</v>
+        <v>6.969570368381352</v>
       </c>
       <c r="E31">
-        <v>1063.765625</v>
-      </c>
-      <c r="F31">
-        <v>6.969570368381352</v>
-      </c>
-      <c r="G31">
         <v>7.119417519395422</v>
       </c>
     </row>
@@ -1157,15 +967,9 @@
         <v>107.5714285714286</v>
       </c>
       <c r="D32">
-        <v>1535.657894736842</v>
+        <v>7.235921224281354</v>
       </c>
       <c r="E32">
-        <v>1388.41935483871</v>
-      </c>
-      <c r="F32">
-        <v>7.235921224281354</v>
-      </c>
-      <c r="G32">
         <v>7.336714164120068</v>
       </c>
     </row>
@@ -1182,15 +986,9 @@
         <v>331.5714285714286</v>
       </c>
       <c r="D33">
-        <v>1581.079646017699</v>
+        <v>7.042858499018744</v>
       </c>
       <c r="E33">
-        <v>1144.654929577465</v>
-      </c>
-      <c r="F33">
-        <v>7.042858499018744</v>
-      </c>
-      <c r="G33">
         <v>7.365863212928386</v>
       </c>
     </row>
@@ -1207,15 +1005,9 @@
         <v>161.7142857142857</v>
       </c>
       <c r="D34">
-        <v>1301.338842975207</v>
+        <v>6.879172072121193</v>
       </c>
       <c r="E34">
-        <v>971.8214285714286</v>
-      </c>
-      <c r="F34">
-        <v>6.879172072121193</v>
-      </c>
-      <c r="G34">
         <v>7.171148892699564</v>
       </c>
     </row>
@@ -1232,15 +1024,9 @@
         <v>229.8571428571429</v>
       </c>
       <c r="D35">
-        <v>1375.584745762712</v>
+        <v>6.992008888570469</v>
       </c>
       <c r="E35">
-        <v>1087.904761904762</v>
-      </c>
-      <c r="F35">
-        <v>6.992008888570469</v>
-      </c>
-      <c r="G35">
         <v>7.226634189344773</v>
       </c>
     </row>
@@ -1257,15 +1043,9 @@
         <v>196.7142857142857</v>
       </c>
       <c r="D36">
-        <v>1433.088607594937</v>
+        <v>7.065195922250192</v>
       </c>
       <c r="E36">
-        <v>1170.511278195489</v>
-      </c>
-      <c r="F36">
-        <v>7.065195922250192</v>
-      </c>
-      <c r="G36">
         <v>7.267587259548748</v>
       </c>
     </row>
@@ -1282,15 +1062,9 @@
         <v>390.1428571428572</v>
       </c>
       <c r="D37">
-        <v>1274.812903225806</v>
+        <v>6.856096333132005</v>
       </c>
       <c r="E37">
-        <v>949.6526946107784</v>
-      </c>
-      <c r="F37">
-        <v>6.856096333132005</v>
-      </c>
-      <c r="G37">
         <v>7.150554704256788</v>
       </c>
     </row>
@@ -1307,15 +1081,9 @@
         <v>137.2857142857143</v>
       </c>
       <c r="D38">
-        <v>1127.573529411765</v>
+        <v>6.672539146433658</v>
       </c>
       <c r="E38">
-        <v>790.4</v>
-      </c>
-      <c r="F38">
-        <v>6.672539146433658</v>
-      </c>
-      <c r="G38">
         <v>7.027823283806345</v>
       </c>
     </row>
@@ -1332,15 +1100,9 @@
         <v>1061</v>
       </c>
       <c r="D39">
-        <v>1108.344262295082</v>
+        <v>6.77639296078531</v>
       </c>
       <c r="E39">
-        <v>876.9</v>
-      </c>
-      <c r="F39">
-        <v>6.77639296078531</v>
-      </c>
-      <c r="G39">
         <v>7.010622525090596</v>
       </c>
     </row>
@@ -1357,15 +1119,9 @@
         <v>79.14285714285714</v>
       </c>
       <c r="D40">
-        <v>1588.352459016393</v>
+        <v>7.14185139731475</v>
       </c>
       <c r="E40">
-        <v>1263.765957446808</v>
-      </c>
-      <c r="F40">
-        <v>7.14185139731475</v>
-      </c>
-      <c r="G40">
         <v>7.370452568701144</v>
       </c>
     </row>
@@ -1382,15 +1138,9 @@
         <v>95.85714285714286</v>
       </c>
       <c r="D41">
-        <v>992.7404580152672</v>
+        <v>6.654818846307865</v>
       </c>
       <c r="E41">
-        <v>776.5172413793103</v>
-      </c>
-      <c r="F41">
-        <v>6.654818846307865</v>
-      </c>
-      <c r="G41">
         <v>6.900469258295833</v>
       </c>
     </row>
@@ -1407,15 +1157,9 @@
         <v>78.14285714285714</v>
       </c>
       <c r="D42">
-        <v>1370.915966386555</v>
+        <v>7.134752811483845</v>
       </c>
       <c r="E42">
-        <v>1254.826771653543</v>
-      </c>
-      <c r="F42">
-        <v>7.134752811483845</v>
-      </c>
-      <c r="G42">
         <v>7.223234384019707</v>
       </c>
     </row>
@@ -1432,15 +1176,9 @@
         <v>310.4285714285714</v>
       </c>
       <c r="D43">
-        <v>1064.655405405405</v>
+        <v>6.805950339526814</v>
       </c>
       <c r="E43">
-        <v>903.2057142857143</v>
-      </c>
-      <c r="F43">
-        <v>6.805950339526814</v>
-      </c>
-      <c r="G43">
         <v>6.970406462786104</v>
       </c>
     </row>
@@ -1457,15 +1195,9 @@
         <v>101</v>
       </c>
       <c r="D44">
-        <v>1225.5</v>
+        <v>6.823411103516777</v>
       </c>
       <c r="E44">
-        <v>919.1148648648649</v>
-      </c>
-      <c r="F44">
-        <v>6.823411103516777</v>
-      </c>
-      <c r="G44">
         <v>7.111104202968168</v>
       </c>
     </row>
@@ -1482,15 +1214,9 @@
         <v>123.5714285714286</v>
       </c>
       <c r="D45">
-        <v>908.1098901098901</v>
+        <v>6.574279595328631</v>
       </c>
       <c r="E45">
-        <v>716.4293193717277</v>
-      </c>
-      <c r="F45">
-        <v>6.574279595328631</v>
-      </c>
-      <c r="G45">
         <v>6.811365395628536</v>
       </c>
     </row>
@@ -1507,15 +1233,9 @@
         <v>186.7142857142857</v>
       </c>
       <c r="D46">
-        <v>740.609756097561</v>
+        <v>6.421239602538288</v>
       </c>
       <c r="E46">
-        <v>614.7647058823529</v>
-      </c>
-      <c r="F46">
-        <v>6.421239602538288</v>
-      </c>
-      <c r="G46">
         <v>6.607473841627368</v>
       </c>
     </row>
@@ -1532,15 +1252,9 @@
         <v>89.42857142857143</v>
       </c>
       <c r="D47">
-        <v>1259.735294117647</v>
+        <v>6.961060523195856</v>
       </c>
       <c r="E47">
-        <v>1054.751552795031</v>
-      </c>
-      <c r="F47">
-        <v>6.961060523195856</v>
-      </c>
-      <c r="G47">
         <v>7.138656893841168</v>
       </c>
     </row>
@@ -1557,15 +1271,9 @@
         <v>43.28571428571428</v>
       </c>
       <c r="D48">
-        <v>1191.714285714286</v>
+        <v>6.959349987793811</v>
       </c>
       <c r="E48">
-        <v>1052.948905109489</v>
-      </c>
-      <c r="F48">
-        <v>6.959349987793811</v>
-      </c>
-      <c r="G48">
         <v>7.083148125701578</v>
       </c>
     </row>
@@ -1582,15 +1290,9 @@
         <v>60.42857142857143</v>
       </c>
       <c r="D49">
-        <v>1569.258928571429</v>
+        <v>7.225240799600637</v>
       </c>
       <c r="E49">
-        <v>1373.66935483871</v>
-      </c>
-      <c r="F49">
-        <v>7.225240799600637</v>
-      </c>
-      <c r="G49">
         <v>7.358358766887639</v>
       </c>
     </row>
@@ -1607,15 +1309,9 @@
         <v>34.42857142857143</v>
       </c>
       <c r="D50">
-        <v>1258.352517985611</v>
+        <v>6.858551904453062</v>
       </c>
       <c r="E50">
-        <v>951.9875</v>
-      </c>
-      <c r="F50">
-        <v>6.858551904453062</v>
-      </c>
-      <c r="G50">
         <v>7.137558618980075</v>
       </c>
     </row>
@@ -1632,15 +1328,9 @@
         <v>31.71428571428572</v>
       </c>
       <c r="D51">
-        <v>1806.15</v>
+        <v>7.342688249360188</v>
       </c>
       <c r="E51">
-        <v>1544.859504132231</v>
-      </c>
-      <c r="F51">
-        <v>7.342688249360188</v>
-      </c>
-      <c r="G51">
         <v>7.498952787006337</v>
       </c>
     </row>
@@ -1657,15 +1347,9 @@
         <v>28.71428571428572</v>
       </c>
       <c r="D52">
-        <v>1148.148936170213</v>
+        <v>6.852448473005276</v>
       </c>
       <c r="E52">
-        <v>946.1948051948052</v>
-      </c>
-      <c r="F52">
-        <v>6.852448473005276</v>
-      </c>
-      <c r="G52">
         <v>7.045906303804517</v>
       </c>
     </row>

--- a/RData/data_rt_cond.xlsx
+++ b/RData/data_rt_cond.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -406,951 +406,951 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub 4002</t>
+          <t>sub 3058</t>
         </is>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C3">
-        <v>185.2857142857143</v>
+        <v>1422.428571428571</v>
       </c>
       <c r="D3">
-        <v>7.235590887291337</v>
+        <v>7.297207142434806</v>
       </c>
       <c r="E3">
-        <v>7.423991692533152</v>
+        <v>7.532548481663499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub 3676</t>
+          <t>sub 2917</t>
         </is>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>280.8571428571428</v>
+        <v>450.8571428571428</v>
       </c>
       <c r="D4">
-        <v>6.897691652237548</v>
+        <v>6.754401649846619</v>
       </c>
       <c r="E4">
-        <v>7.180615986678988</v>
+        <v>7.004378343804022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub 3364</t>
+          <t>sub 3104</t>
         </is>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>334.4285714285714</v>
+        <v>405.5714285714286</v>
       </c>
       <c r="D5">
-        <v>7.271008538280992</v>
+        <v>6.680493671059009</v>
       </c>
       <c r="E5">
-        <v>7.193103986091854</v>
+        <v>7.049660684150259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub 3299</t>
+          <t>sub 3889</t>
         </is>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>509.2857142857143</v>
+        <v>202.7142857142857</v>
       </c>
       <c r="D6">
-        <v>6.938973119086882</v>
+        <v>7.288239991158792</v>
       </c>
       <c r="E6">
-        <v>7.190838557880011</v>
+        <v>7.489944295661041</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub 2884</t>
+          <t>sub 3642</t>
         </is>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>516.8571428571429</v>
+        <v>275</v>
       </c>
       <c r="D7">
-        <v>6.869672146386769</v>
+        <v>6.952684029225537</v>
       </c>
       <c r="E7">
-        <v>7.290948219481536</v>
+        <v>7.172272124877588</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub 3396</t>
+          <t>sub 3035</t>
         </is>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C8">
-        <v>337.2857142857143</v>
+        <v>843.2857142857143</v>
       </c>
       <c r="D8">
-        <v>6.765143826059799</v>
+        <v>7.145163944947113</v>
       </c>
       <c r="E8">
-        <v>7.05851477048068</v>
+        <v>7.401780564069782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub 2998</t>
+          <t>sub 4182</t>
         </is>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>469.2857142857143</v>
+        <v>146.2857142857143</v>
       </c>
       <c r="D9">
-        <v>7.521484556637388</v>
+        <v>7.105047066617693</v>
       </c>
       <c r="E9">
-        <v>7.687637012505191</v>
+        <v>7.34600224492737</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sub 4467</t>
+          <t>sub 4137</t>
         </is>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>31.28571428571428</v>
+        <v>162.2857142857143</v>
       </c>
       <c r="D10">
-        <v>7.07880722235384</v>
+        <v>6.724701539314093</v>
       </c>
       <c r="E10">
-        <v>7.222512793561449</v>
+        <v>6.876484644744835</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sub 3392</t>
+          <t>sub 3583</t>
         </is>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>331.1428571428572</v>
+        <v>481.5714285714286</v>
       </c>
       <c r="D11">
-        <v>6.921752746160236</v>
+        <v>7.014093534318485</v>
       </c>
       <c r="E11">
-        <v>7.179038923271301</v>
+        <v>7.061145858389295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sub 3058</t>
+          <t>sub 4281</t>
         </is>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>1422.428571428571</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="D12">
-        <v>7.28302250744285</v>
+        <v>6.906132341109006</v>
       </c>
       <c r="E12">
-        <v>7.523814801694744</v>
+        <v>7.110800607316067</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sub 3960</t>
+          <t>sub 4191</t>
         </is>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>239.7142857142857</v>
+        <v>131.4285714285714</v>
       </c>
       <c r="D13">
-        <v>7.343147902864423</v>
+        <v>6.389721196913212</v>
       </c>
       <c r="E13">
-        <v>7.292847597282364</v>
+        <v>6.684503026107953</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sub 2917</t>
+          <t>sub 3201</t>
         </is>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>450.8571428571428</v>
+        <v>436.4285714285714</v>
       </c>
       <c r="D14">
-        <v>6.754401649846619</v>
+        <v>6.976161311646197</v>
       </c>
       <c r="E14">
-        <v>7.004378343804022</v>
+        <v>7.153210769247173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sub 3154</t>
+          <t>sub 4275</t>
         </is>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C15">
-        <v>443.1428571428572</v>
+        <v>121.5714285714286</v>
       </c>
       <c r="D15">
-        <v>6.945890590677042</v>
+        <v>6.529226008764224</v>
       </c>
       <c r="E15">
-        <v>7.21342356158228</v>
+        <v>6.787137721386846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sub 3104</t>
+          <t>sub 4170</t>
         </is>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C16">
-        <v>405.5714285714286</v>
+        <v>308</v>
       </c>
       <c r="D16">
-        <v>6.680493671059009</v>
+        <v>6.952293994294211</v>
       </c>
       <c r="E16">
-        <v>7.049660684150259</v>
+        <v>7.223429300180174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sub 3994</t>
+          <t>sub 3676</t>
         </is>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C17">
-        <v>179.8571428571429</v>
+        <v>280.8571428571428</v>
       </c>
       <c r="D17">
-        <v>6.903808105191785</v>
+        <v>6.897691652237548</v>
       </c>
       <c r="E17">
-        <v>7.261990886521152</v>
+        <v>7.180615986678988</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sub 3889</t>
+          <t>sub 4431</t>
         </is>
       </c>
       <c r="B18">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C18">
-        <v>202.7142857142857</v>
+        <v>96.71428571428571</v>
       </c>
       <c r="D18">
-        <v>7.288239991158792</v>
+        <v>6.969570368381352</v>
       </c>
       <c r="E18">
-        <v>7.489944295661041</v>
+        <v>7.119417519395422</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sub 4086</t>
+          <t>sub 4294</t>
         </is>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C19">
-        <v>141.7142857142857</v>
+        <v>107.5714285714286</v>
       </c>
       <c r="D19">
-        <v>7.364293657274302</v>
+        <v>7.235921224281354</v>
       </c>
       <c r="E19">
-        <v>7.649765881101386</v>
+        <v>7.336714164120068</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sub 3642</t>
+          <t>sub 3650</t>
         </is>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20">
-        <v>275</v>
+        <v>331.5714285714286</v>
       </c>
       <c r="D20">
-        <v>6.952684029225537</v>
+        <v>7.042858499018744</v>
       </c>
       <c r="E20">
-        <v>7.172272124877588</v>
+        <v>7.365863212928386</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sub 2522</t>
+          <t>sub 4140</t>
         </is>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>555.8571428571429</v>
+        <v>161.7142857142857</v>
       </c>
       <c r="D21">
-        <v>6.689054966844467</v>
+        <v>6.879172072121193</v>
       </c>
       <c r="E21">
-        <v>7.10981661544632</v>
+        <v>7.171148892699564</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sub 3035</t>
+          <t>sub 3912</t>
         </is>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C22">
-        <v>843.2857142857143</v>
+        <v>229.8571428571429</v>
       </c>
       <c r="D22">
-        <v>7.145163944947113</v>
+        <v>6.992008888570469</v>
       </c>
       <c r="E22">
-        <v>7.401780564069782</v>
+        <v>7.226634189344773</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sub 4182</t>
+          <t>sub 4051</t>
         </is>
       </c>
       <c r="B23">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C23">
-        <v>146.2857142857143</v>
+        <v>196.7142857142857</v>
       </c>
       <c r="D23">
-        <v>7.105047066617693</v>
+        <v>7.065195922250192</v>
       </c>
       <c r="E23">
-        <v>7.34600224492737</v>
+        <v>7.267587259548748</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sub 4137</t>
+          <t>sub 3286</t>
         </is>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C24">
-        <v>162.2857142857143</v>
+        <v>390.1428571428572</v>
       </c>
       <c r="D24">
-        <v>6.724701539314093</v>
+        <v>6.862102357192216</v>
       </c>
       <c r="E24">
-        <v>6.876484644744835</v>
+        <v>7.156536197605726</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sub 3583</t>
+          <t>sub 4208</t>
         </is>
       </c>
       <c r="B25">
         <v>51</v>
       </c>
       <c r="C25">
-        <v>481.5714285714286</v>
+        <v>137.2857142857143</v>
       </c>
       <c r="D25">
-        <v>7.014093534318485</v>
+        <v>6.672539146433658</v>
       </c>
       <c r="E25">
-        <v>7.061145858389295</v>
+        <v>7.027823283806345</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sub 4281</t>
+          <t>sub 1536</t>
         </is>
       </c>
       <c r="B26">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C26">
-        <v>128.5714285714286</v>
+        <v>1061</v>
       </c>
       <c r="D26">
-        <v>6.906132341109006</v>
+        <v>6.77639296078531</v>
       </c>
       <c r="E26">
-        <v>7.110800607316067</v>
+        <v>7.010622525090596</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sub 4191</t>
+          <t>sub 4439</t>
         </is>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27">
-        <v>131.4285714285714</v>
+        <v>79.14285714285714</v>
       </c>
       <c r="D27">
-        <v>6.389721196913212</v>
+        <v>7.14185139731475</v>
       </c>
       <c r="E27">
-        <v>6.684503026107953</v>
+        <v>7.370452568701144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sub 3201</t>
+          <t>sub 4466</t>
         </is>
       </c>
       <c r="B28">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C28">
-        <v>436.4285714285714</v>
+        <v>95.85714285714286</v>
       </c>
       <c r="D28">
-        <v>6.976161311646197</v>
+        <v>6.654818846307865</v>
       </c>
       <c r="E28">
-        <v>7.153210769247173</v>
+        <v>6.900469258295833</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sub 4275</t>
+          <t>sub 4504</t>
         </is>
       </c>
       <c r="B29">
         <v>55</v>
       </c>
       <c r="C29">
-        <v>121.5714285714286</v>
+        <v>78.14285714285714</v>
       </c>
       <c r="D29">
-        <v>6.529226008764224</v>
+        <v>7.134752811483845</v>
       </c>
       <c r="E29">
-        <v>6.787137721386846</v>
+        <v>7.223234384019707</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sub 4170</t>
+          <t>sub 3887</t>
         </is>
       </c>
       <c r="B30">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C30">
-        <v>308</v>
+        <v>310.4285714285714</v>
       </c>
       <c r="D30">
-        <v>6.952293994294211</v>
+        <v>6.805950339526814</v>
       </c>
       <c r="E30">
-        <v>7.223429300180174</v>
+        <v>6.970406462786104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sub 4431</t>
+          <t>sub 4391</t>
         </is>
       </c>
       <c r="B31">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C31">
-        <v>96.71428571428571</v>
+        <v>101</v>
       </c>
       <c r="D31">
-        <v>6.969570368381352</v>
+        <v>6.823411103516777</v>
       </c>
       <c r="E31">
-        <v>7.119417519395422</v>
+        <v>7.111104202968168</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sub 4294</t>
+          <t>sub 4546</t>
         </is>
       </c>
       <c r="B32">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C32">
-        <v>107.5714285714286</v>
+        <v>123.5714285714286</v>
       </c>
       <c r="D32">
-        <v>7.235921224281354</v>
+        <v>6.574279595328631</v>
       </c>
       <c r="E32">
-        <v>7.336714164120068</v>
+        <v>6.811365395628536</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sub 3650</t>
+          <t>sub 4227</t>
         </is>
       </c>
       <c r="B33">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>331.5714285714286</v>
+        <v>186.7142857142857</v>
       </c>
       <c r="D33">
-        <v>7.042858499018744</v>
+        <v>6.421239602538288</v>
       </c>
       <c r="E33">
-        <v>7.365863212928386</v>
+        <v>6.607473841627368</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sub 4140</t>
+          <t>sub 4532</t>
         </is>
       </c>
       <c r="B34">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C34">
-        <v>161.7142857142857</v>
+        <v>89.42857142857143</v>
       </c>
       <c r="D34">
-        <v>6.879172072121193</v>
+        <v>6.961060523195856</v>
       </c>
       <c r="E34">
-        <v>7.171148892699564</v>
+        <v>7.138656893841168</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sub 3912</t>
+          <t>sub 3299</t>
         </is>
       </c>
       <c r="B35">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>229.8571428571429</v>
+        <v>509.2857142857143</v>
       </c>
       <c r="D35">
-        <v>6.992008888570469</v>
+        <v>6.938973119086882</v>
       </c>
       <c r="E35">
-        <v>7.226634189344773</v>
+        <v>7.190838557880011</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sub 4051</t>
+          <t>sub 4720</t>
         </is>
       </c>
       <c r="B36">
         <v>59</v>
       </c>
       <c r="C36">
-        <v>196.7142857142857</v>
+        <v>43.28571428571428</v>
       </c>
       <c r="D36">
-        <v>7.065195922250192</v>
+        <v>6.959349987793811</v>
       </c>
       <c r="E36">
-        <v>7.267587259548748</v>
+        <v>7.083148125701578</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sub 3286</t>
+          <t>sub 4607</t>
         </is>
       </c>
       <c r="B37">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C37">
-        <v>390.1428571428572</v>
+        <v>60.42857142857143</v>
       </c>
       <c r="D37">
-        <v>6.856096333132005</v>
+        <v>7.225240799600637</v>
       </c>
       <c r="E37">
-        <v>7.150554704256788</v>
+        <v>7.358358766887639</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sub 4208</t>
+          <t>sub 4728</t>
         </is>
       </c>
       <c r="B38">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>137.2857142857143</v>
+        <v>34.42857142857143</v>
       </c>
       <c r="D38">
-        <v>6.672539146433658</v>
+        <v>6.858551904453062</v>
       </c>
       <c r="E38">
-        <v>7.027823283806345</v>
+        <v>7.137558618980075</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sub 1536</t>
+          <t>sub 4769</t>
         </is>
       </c>
       <c r="B39">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C39">
-        <v>1061</v>
+        <v>31.71428571428572</v>
       </c>
       <c r="D39">
-        <v>6.77639296078531</v>
+        <v>7.342688249360188</v>
       </c>
       <c r="E39">
-        <v>7.010622525090596</v>
+        <v>7.50900312285984</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sub 4439</t>
+          <t>sub 4777</t>
         </is>
       </c>
       <c r="B40">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C40">
-        <v>79.14285714285714</v>
+        <v>28.71428571428572</v>
       </c>
       <c r="D40">
-        <v>7.14185139731475</v>
+        <v>6.852448473005276</v>
       </c>
       <c r="E40">
-        <v>7.370452568701144</v>
+        <v>7.045906303804517</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sub 4466</t>
+          <t>sub 3396</t>
         </is>
       </c>
       <c r="B41">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C41">
-        <v>95.85714285714286</v>
+        <v>337.2857142857143</v>
       </c>
       <c r="D41">
-        <v>6.654818846307865</v>
+        <v>6.765143826059799</v>
       </c>
       <c r="E41">
-        <v>6.900469258295833</v>
+        <v>7.05851477048068</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sub 4504</t>
+          <t>sub 4467</t>
         </is>
       </c>
       <c r="B42">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C42">
-        <v>78.14285714285714</v>
+        <v>31.28571428571428</v>
       </c>
       <c r="D42">
-        <v>7.134752811483845</v>
+        <v>7.07880722235384</v>
       </c>
       <c r="E42">
-        <v>7.223234384019707</v>
+        <v>7.232984093428745</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sub 3887</t>
+          <t>sub 3392</t>
         </is>
       </c>
       <c r="B43">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C43">
-        <v>310.4285714285714</v>
+        <v>331.1428571428572</v>
       </c>
       <c r="D43">
-        <v>6.805950339526814</v>
+        <v>6.941884155244977</v>
       </c>
       <c r="E43">
-        <v>6.970406462786104</v>
+        <v>7.179055921613601</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sub 4391</t>
+          <t>sub 3960</t>
         </is>
       </c>
       <c r="B44">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C44">
-        <v>101</v>
+        <v>239.7142857142857</v>
       </c>
       <c r="D44">
-        <v>6.823411103516777</v>
+        <v>7.330195491296263</v>
       </c>
       <c r="E44">
-        <v>7.111104202968168</v>
+        <v>7.282435106535899</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sub 4546</t>
+          <t>sub 3154</t>
         </is>
       </c>
       <c r="B45">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C45">
-        <v>123.5714285714286</v>
+        <v>443.1428571428572</v>
       </c>
       <c r="D45">
-        <v>6.574279595328631</v>
+        <v>6.949298581924364</v>
       </c>
       <c r="E45">
-        <v>6.811365395628536</v>
+        <v>7.143466335843881</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sub 4227</t>
+          <t>sub 3994</t>
         </is>
       </c>
       <c r="B46">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C46">
-        <v>186.7142857142857</v>
+        <v>179.8571428571429</v>
       </c>
       <c r="D46">
-        <v>6.421239602538288</v>
+        <v>6.941965574200417</v>
       </c>
       <c r="E46">
-        <v>6.607473841627368</v>
+        <v>7.265568036903425</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sub 4532</t>
+          <t>sub 4086</t>
         </is>
       </c>
       <c r="B47">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C47">
-        <v>89.42857142857143</v>
+        <v>141.7142857142857</v>
       </c>
       <c r="D47">
-        <v>6.961060523195856</v>
+        <v>6.983195060598846</v>
       </c>
       <c r="E47">
-        <v>7.138656893841168</v>
+        <v>7.296772856863443</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sub 4720</t>
+          <t>sub 4002</t>
         </is>
       </c>
       <c r="B48">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C48">
-        <v>43.28571428571428</v>
+        <v>185.2857142857143</v>
       </c>
       <c r="D48">
-        <v>6.959349987793811</v>
+        <v>7.224503660714746</v>
       </c>
       <c r="E48">
-        <v>7.083148125701578</v>
+        <v>7.374136614896833</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sub 4607</t>
+          <t>sub 2522</t>
         </is>
       </c>
       <c r="B49">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>60.42857142857143</v>
+        <v>555.8571428571429</v>
       </c>
       <c r="D49">
-        <v>7.225240799600637</v>
+        <v>6.711985204335674</v>
       </c>
       <c r="E49">
-        <v>7.358358766887639</v>
+        <v>7.05124192015805</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sub 4728</t>
+          <t>sub 3364</t>
         </is>
       </c>
       <c r="B50">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>34.42857142857143</v>
+        <v>334.4285714285714</v>
       </c>
       <c r="D50">
-        <v>6.858551904453062</v>
+        <v>6.964977817750166</v>
       </c>
       <c r="E50">
-        <v>7.137558618980075</v>
+        <v>7.158015818784285</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sub 4769</t>
+          <t>sub 2884</t>
         </is>
       </c>
       <c r="B51">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51">
-        <v>31.71428571428572</v>
+        <v>516.8571428571429</v>
       </c>
       <c r="D51">
-        <v>7.342688249360188</v>
+        <v>6.847440856796569</v>
       </c>
       <c r="E51">
-        <v>7.498952787006337</v>
+        <v>7.138000824057674</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sub 4777</t>
+          <t>sub 2998</t>
         </is>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C52">
-        <v>28.71428571428572</v>
+        <v>469.2857142857143</v>
       </c>
       <c r="D52">
-        <v>6.852448473005276</v>
+        <v>7.282931011531638</v>
       </c>
       <c r="E52">
-        <v>7.045906303804517</v>
+        <v>7.576867577619332</v>
       </c>
     </row>
   </sheetData>

--- a/RData/data_rt_cond.xlsx
+++ b/RData/data_rt_cond.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,12 +375,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>WPM_log</t>
+          <t>FPM</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>FPM_log</t>
+          <t>WPM</t>
         </is>
       </c>
     </row>
@@ -397,10 +397,10 @@
         <v>823.4285714285714</v>
       </c>
       <c r="D2">
-        <v>6.868175328897202</v>
+        <v>6.952134847798976</v>
       </c>
       <c r="E2">
-        <v>7.027466179708268</v>
+        <v>6.783413977560148</v>
       </c>
     </row>
     <row r="3">
@@ -416,10 +416,10 @@
         <v>1422.428571428571</v>
       </c>
       <c r="D3">
-        <v>7.297207142434806</v>
+        <v>7.491523672377968</v>
       </c>
       <c r="E3">
-        <v>7.532548481663499</v>
+        <v>7.270794497089682</v>
       </c>
     </row>
     <row r="4">
@@ -435,10 +435,10 @@
         <v>450.8571428571428</v>
       </c>
       <c r="D4">
-        <v>6.754401649846619</v>
+        <v>6.949746855268403</v>
       </c>
       <c r="E4">
-        <v>7.004378343804022</v>
+        <v>6.704910435309077</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>405.5714285714286</v>
       </c>
       <c r="D5">
-        <v>6.680493671059009</v>
+        <v>6.983665645428913</v>
       </c>
       <c r="E5">
-        <v>7.049660684150259</v>
+        <v>6.635059784800578</v>
       </c>
     </row>
     <row r="6">
@@ -473,10 +473,10 @@
         <v>202.7142857142857</v>
       </c>
       <c r="D6">
-        <v>7.288239991158792</v>
+        <v>7.445685204605836</v>
       </c>
       <c r="E6">
-        <v>7.489944295661041</v>
+        <v>7.24539013591141</v>
       </c>
     </row>
     <row r="7">
@@ -492,10 +492,10 @@
         <v>275</v>
       </c>
       <c r="D7">
-        <v>6.952684029225537</v>
+        <v>7.139870140659839</v>
       </c>
       <c r="E7">
-        <v>7.172272124877588</v>
+        <v>6.920435962115727</v>
       </c>
     </row>
     <row r="8">
@@ -511,10 +511,10 @@
         <v>843.2857142857143</v>
       </c>
       <c r="D8">
-        <v>7.145163944947113</v>
+        <v>7.37077782435057</v>
       </c>
       <c r="E8">
-        <v>7.401780564069782</v>
+        <v>7.089231582809733</v>
       </c>
     </row>
     <row r="9">
@@ -530,10 +530,10 @@
         <v>146.2857142857143</v>
       </c>
       <c r="D9">
-        <v>7.105047066617693</v>
+        <v>7.308278077087381</v>
       </c>
       <c r="E9">
-        <v>7.34600224492737</v>
+        <v>7.071794403651529</v>
       </c>
     </row>
     <row r="10">
@@ -549,10 +549,10 @@
         <v>162.2857142857143</v>
       </c>
       <c r="D10">
-        <v>6.724701539314093</v>
+        <v>6.842542813453106</v>
       </c>
       <c r="E10">
-        <v>6.876484644744835</v>
+        <v>6.678030764716598</v>
       </c>
     </row>
     <row r="11">
@@ -568,10 +568,10 @@
         <v>481.5714285714286</v>
       </c>
       <c r="D11">
-        <v>7.014093534318485</v>
+        <v>6.974849819532158</v>
       </c>
       <c r="E11">
-        <v>7.061145858389295</v>
+        <v>6.920491249657466</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         <v>128.5714285714286</v>
       </c>
       <c r="D12">
-        <v>6.906132341109006</v>
+        <v>7.078653115998773</v>
       </c>
       <c r="E12">
-        <v>7.110800607316067</v>
+        <v>6.869212198532422</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>131.4285714285714</v>
       </c>
       <c r="D13">
-        <v>6.389721196913212</v>
+        <v>6.634880798133581</v>
       </c>
       <c r="E13">
-        <v>6.684503026107953</v>
+        <v>6.364662321020626</v>
       </c>
     </row>
     <row r="14">
@@ -625,10 +625,10 @@
         <v>436.4285714285714</v>
       </c>
       <c r="D14">
-        <v>6.976161311646197</v>
+        <v>7.108065594295618</v>
       </c>
       <c r="E14">
-        <v>7.153210769247173</v>
+        <v>6.937830853335288</v>
       </c>
     </row>
     <row r="15">
@@ -644,10 +644,10 @@
         <v>121.5714285714286</v>
       </c>
       <c r="D15">
-        <v>6.529226008764224</v>
+        <v>6.730530529381854</v>
       </c>
       <c r="E15">
-        <v>6.787137721386846</v>
+        <v>6.464115853763414</v>
       </c>
     </row>
     <row r="16">
@@ -663,10 +663,10 @@
         <v>308</v>
       </c>
       <c r="D16">
-        <v>6.952293994294211</v>
+        <v>7.171153351207309</v>
       </c>
       <c r="E16">
-        <v>7.223429300180174</v>
+        <v>6.918771391529022</v>
       </c>
     </row>
     <row r="17">
@@ -682,10 +682,10 @@
         <v>280.8571428571428</v>
       </c>
       <c r="D17">
-        <v>6.897691652237548</v>
+        <v>7.146766028094526</v>
       </c>
       <c r="E17">
-        <v>7.180615986678988</v>
+        <v>6.867175612586004</v>
       </c>
     </row>
     <row r="18">
@@ -701,10 +701,10 @@
         <v>96.71428571428571</v>
       </c>
       <c r="D18">
-        <v>6.969570368381352</v>
+        <v>7.090863241949512</v>
       </c>
       <c r="E18">
-        <v>7.119417519395422</v>
+        <v>6.93695694447592</v>
       </c>
     </row>
     <row r="19">
@@ -720,10 +720,10 @@
         <v>107.5714285714286</v>
       </c>
       <c r="D19">
-        <v>7.235921224281354</v>
+        <v>7.291442566904449</v>
       </c>
       <c r="E19">
-        <v>7.336714164120068</v>
+        <v>7.180032388973652</v>
       </c>
     </row>
     <row r="20">
@@ -739,10 +739,10 @@
         <v>331.5714285714286</v>
       </c>
       <c r="D20">
-        <v>7.042858499018744</v>
+        <v>7.314461508176811</v>
       </c>
       <c r="E20">
-        <v>7.365863212928386</v>
+        <v>6.998034422000302</v>
       </c>
     </row>
     <row r="21">
@@ -758,10 +758,10 @@
         <v>161.7142857142857</v>
       </c>
       <c r="D21">
-        <v>6.879172072121193</v>
+        <v>7.132677768078501</v>
       </c>
       <c r="E21">
-        <v>7.171148892699564</v>
+        <v>6.845700061654469</v>
       </c>
     </row>
     <row r="22">
@@ -777,10 +777,10 @@
         <v>229.8571428571429</v>
       </c>
       <c r="D22">
-        <v>6.992008888570469</v>
+        <v>7.189083292612422</v>
       </c>
       <c r="E22">
-        <v>7.226634189344773</v>
+        <v>6.962926249785784</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         <v>196.7142857142857</v>
       </c>
       <c r="D23">
-        <v>7.065195922250192</v>
+        <v>7.233796984705399</v>
       </c>
       <c r="E23">
-        <v>7.267587259548748</v>
+        <v>7.023767386392288</v>
       </c>
     </row>
     <row r="24">
@@ -815,10 +815,10 @@
         <v>390.1428571428572</v>
       </c>
       <c r="D24">
-        <v>6.862102357192216</v>
+        <v>7.104731651556778</v>
       </c>
       <c r="E24">
-        <v>7.156536197605726</v>
+        <v>6.822219003719034</v>
       </c>
     </row>
     <row r="25">
@@ -834,10 +834,10 @@
         <v>137.2857142857143</v>
       </c>
       <c r="D25">
-        <v>6.672539146433658</v>
+        <v>6.980222777484832</v>
       </c>
       <c r="E25">
-        <v>7.027823283806345</v>
+        <v>6.615899390546929</v>
       </c>
     </row>
     <row r="26">
@@ -853,10 +853,10 @@
         <v>1061</v>
       </c>
       <c r="D26">
-        <v>6.77639296078531</v>
+        <v>6.964743475718091</v>
       </c>
       <c r="E26">
-        <v>7.010622525090596</v>
+        <v>6.728627430655716</v>
       </c>
     </row>
     <row r="27">
@@ -872,10 +872,10 @@
         <v>79.14285714285714</v>
       </c>
       <c r="D27">
-        <v>7.14185139731475</v>
+        <v>7.350428595077923</v>
       </c>
       <c r="E27">
-        <v>7.370452568701144</v>
+        <v>7.126630978545323</v>
       </c>
     </row>
     <row r="28">
@@ -891,10 +891,10 @@
         <v>95.85714285714286</v>
       </c>
       <c r="D28">
-        <v>6.654818846307865</v>
+        <v>6.858542388421064</v>
       </c>
       <c r="E28">
-        <v>6.900469258295833</v>
+        <v>6.61421054518505</v>
       </c>
     </row>
     <row r="29">
@@ -910,10 +910,10 @@
         <v>78.14285714285714</v>
       </c>
       <c r="D29">
-        <v>7.134752811483845</v>
+        <v>7.174472723554255</v>
       </c>
       <c r="E29">
-        <v>7.223234384019707</v>
+        <v>7.095960151653968</v>
       </c>
     </row>
     <row r="30">
@@ -929,10 +929,10 @@
         <v>310.4285714285714</v>
       </c>
       <c r="D30">
-        <v>6.805950339526814</v>
+        <v>6.913995806023228</v>
       </c>
       <c r="E30">
-        <v>6.970406462786104</v>
+        <v>6.749686950380546</v>
       </c>
     </row>
     <row r="31">
@@ -948,10 +948,10 @@
         <v>101</v>
       </c>
       <c r="D31">
-        <v>6.823411103516777</v>
+        <v>7.057897253003959</v>
       </c>
       <c r="E31">
-        <v>7.111104202968168</v>
+        <v>6.774180426247743</v>
       </c>
     </row>
     <row r="32">
@@ -967,10 +967,10 @@
         <v>123.5714285714286</v>
       </c>
       <c r="D32">
-        <v>6.574279595328631</v>
+        <v>6.770001682661413</v>
       </c>
       <c r="E32">
-        <v>6.811365395628536</v>
+        <v>6.54429203562524</v>
       </c>
     </row>
     <row r="33">
@@ -986,10 +986,10 @@
         <v>186.7142857142857</v>
       </c>
       <c r="D33">
-        <v>6.421239602538288</v>
+        <v>6.514652591241854</v>
       </c>
       <c r="E33">
-        <v>6.607473841627368</v>
+        <v>6.404263772480118</v>
       </c>
     </row>
     <row r="34">
@@ -1005,10 +1005,10 @@
         <v>89.42857142857143</v>
       </c>
       <c r="D34">
-        <v>6.961060523195856</v>
+        <v>7.110491622815228</v>
       </c>
       <c r="E34">
-        <v>7.138656893841168</v>
+        <v>6.93005144194609</v>
       </c>
     </row>
     <row r="35">
@@ -1024,10 +1024,10 @@
         <v>509.2857142857143</v>
       </c>
       <c r="D35">
-        <v>6.938973119086882</v>
+        <v>7.137692870403487</v>
       </c>
       <c r="E35">
-        <v>7.190838557880011</v>
+        <v>6.902993022545933</v>
       </c>
     </row>
     <row r="36">
@@ -1043,10 +1043,10 @@
         <v>43.28571428571428</v>
       </c>
       <c r="D36">
-        <v>6.959349987793811</v>
+        <v>7.058374451406982</v>
       </c>
       <c r="E36">
-        <v>7.083148125701578</v>
+        <v>6.927850423299475</v>
       </c>
     </row>
     <row r="37">
@@ -1062,10 +1062,10 @@
         <v>60.42857142857143</v>
       </c>
       <c r="D37">
-        <v>7.225240799600637</v>
+        <v>7.333824634405921</v>
       </c>
       <c r="E37">
-        <v>7.358358766887639</v>
+        <v>7.176516879949531</v>
       </c>
     </row>
     <row r="38">
@@ -1081,10 +1081,10 @@
         <v>34.42857142857143</v>
       </c>
       <c r="D38">
-        <v>6.858551904453062</v>
+        <v>7.105579474676065</v>
       </c>
       <c r="E38">
-        <v>7.137558618980075</v>
+        <v>6.821838095843244</v>
       </c>
     </row>
     <row r="39">
@@ -1100,10 +1100,10 @@
         <v>31.71428571428572</v>
       </c>
       <c r="D39">
-        <v>7.342688249360188</v>
+        <v>7.476156436258767</v>
       </c>
       <c r="E39">
-        <v>7.50900312285984</v>
+        <v>7.303612586750316</v>
       </c>
     </row>
     <row r="40">
@@ -1119,10 +1119,10 @@
         <v>28.71428571428572</v>
       </c>
       <c r="D40">
-        <v>6.852448473005276</v>
+        <v>7.010305555679961</v>
       </c>
       <c r="E40">
-        <v>7.045906303804517</v>
+        <v>6.821495995747958</v>
       </c>
     </row>
     <row r="41">
@@ -1138,10 +1138,10 @@
         <v>337.2857142857143</v>
       </c>
       <c r="D41">
-        <v>6.765143826059799</v>
+        <v>7.02437849804367</v>
       </c>
       <c r="E41">
-        <v>7.05851477048068</v>
+        <v>6.726143734894434</v>
       </c>
     </row>
     <row r="42">
@@ -1157,200 +1157,10 @@
         <v>31.28571428571428</v>
       </c>
       <c r="D42">
-        <v>7.07880722235384</v>
+        <v>7.18041331328177</v>
       </c>
       <c r="E42">
-        <v>7.232984093428745</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>sub 3392</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>53</v>
-      </c>
-      <c r="C43">
-        <v>331.1428571428572</v>
-      </c>
-      <c r="D43">
-        <v>6.941884155244977</v>
-      </c>
-      <c r="E43">
-        <v>7.179055921613601</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>sub 3960</t>
-        </is>
-      </c>
-      <c r="B44">
-        <v>79</v>
-      </c>
-      <c r="C44">
-        <v>239.7142857142857</v>
-      </c>
-      <c r="D44">
-        <v>7.330195491296263</v>
-      </c>
-      <c r="E44">
-        <v>7.282435106535899</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>sub 3154</t>
-        </is>
-      </c>
-      <c r="B45">
-        <v>30</v>
-      </c>
-      <c r="C45">
-        <v>443.1428571428572</v>
-      </c>
-      <c r="D45">
-        <v>6.949298581924364</v>
-      </c>
-      <c r="E45">
-        <v>7.143466335843881</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>sub 3994</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>55</v>
-      </c>
-      <c r="C46">
-        <v>179.8571428571429</v>
-      </c>
-      <c r="D46">
-        <v>6.941965574200417</v>
-      </c>
-      <c r="E46">
-        <v>7.265568036903425</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>sub 4086</t>
-        </is>
-      </c>
-      <c r="B47">
-        <v>59</v>
-      </c>
-      <c r="C47">
-        <v>141.7142857142857</v>
-      </c>
-      <c r="D47">
-        <v>6.983195060598846</v>
-      </c>
-      <c r="E47">
-        <v>7.296772856863443</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>sub 4002</t>
-        </is>
-      </c>
-      <c r="B48">
-        <v>69</v>
-      </c>
-      <c r="C48">
-        <v>185.2857142857143</v>
-      </c>
-      <c r="D48">
-        <v>7.224503660714746</v>
-      </c>
-      <c r="E48">
-        <v>7.374136614896833</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>sub 2522</t>
-        </is>
-      </c>
-      <c r="B49">
-        <v>40</v>
-      </c>
-      <c r="C49">
-        <v>555.8571428571429</v>
-      </c>
-      <c r="D49">
-        <v>6.711985204335674</v>
-      </c>
-      <c r="E49">
-        <v>7.05124192015805</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>sub 3364</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>34</v>
-      </c>
-      <c r="C50">
-        <v>334.4285714285714</v>
-      </c>
-      <c r="D50">
-        <v>6.964977817750166</v>
-      </c>
-      <c r="E50">
-        <v>7.158015818784285</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>sub 2884</t>
-        </is>
-      </c>
-      <c r="B51">
-        <v>55</v>
-      </c>
-      <c r="C51">
-        <v>516.8571428571429</v>
-      </c>
-      <c r="D51">
-        <v>6.847440856796569</v>
-      </c>
-      <c r="E51">
-        <v>7.138000824057674</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>sub 2998</t>
-        </is>
-      </c>
-      <c r="B52">
-        <v>59</v>
-      </c>
-      <c r="C52">
-        <v>469.2857142857143</v>
-      </c>
-      <c r="D52">
-        <v>7.282931011531638</v>
-      </c>
-      <c r="E52">
-        <v>7.576867577619332</v>
+        <v>7.035865229496709</v>
       </c>
     </row>
   </sheetData>
